--- a/scripts/data_v3.xlsx
+++ b/scripts/data_v3.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\imtd-server\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A968567-846E-429B-82E7-0D0D1F7265DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6AA6C8-1DB2-4333-884A-50C564D57F24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="240" windowWidth="26910" windowHeight="15045" activeTab="2" xr2:uid="{F2A707A2-A7B0-E84A-A9D6-5519D85058CD}"/>
+    <workbookView xWindow="29265" yWindow="225" windowWidth="26910" windowHeight="15045" activeTab="1" xr2:uid="{F2A707A2-A7B0-E84A-A9D6-5519D85058CD}"/>
   </bookViews>
   <sheets>
     <sheet name="ENTREPRISES" sheetId="1" r:id="rId1"/>
-    <sheet name="ASSOCIATIONS ET INSTITUTIONS " sheetId="4" r:id="rId2"/>
+    <sheet name="ASSOCIATIONS" sheetId="4" r:id="rId2"/>
     <sheet name="LABOS" sheetId="2" r:id="rId3"/>
     <sheet name="FORMATIONS" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="1906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="1906">
   <si>
     <t>ALSTOM</t>
   </si>
@@ -6701,9 +6701,9 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:O313"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F213" sqref="F213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -6740,9 +6740,8 @@
       <c r="E1" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="13" t="str">
-        <f>UPPER("city")</f>
-        <v>CITY</v>
+      <c r="F1" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>82</v>
@@ -15971,8 +15970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97E8DE2-FB8C-4C2A-9581-6072F72B95A7}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16002,9 +16001,8 @@
       <c r="E1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="12" t="str">
-        <f>UPPER("city")</f>
-        <v>CITY</v>
+      <c r="F1" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>82</v>
@@ -16335,7 +16333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B2FE07-F515-D949-B870-F9730B381209}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
